--- a/SNAP.xlsx
+++ b/SNAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFAA0B2-D8F4-41B0-A94A-F38084D8C5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3E1D1A-B148-4FEC-89C1-9B325456BBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Snap</t>
   </si>
@@ -230,11 +230,21 @@
   <si>
     <t>Total DAU Growth</t>
   </si>
+  <si>
+    <t xml:space="preserve">Advertising </t>
+  </si>
+  <si>
+    <t>Other Revenue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00;\(#,##0.00\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,6 +320,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -649,7 +663,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,19 +684,19 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>10.34</v>
+        <v>7.44</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3">
-        <f>1442.210767+22.52329+231.626943</f>
-        <v>1696.3610000000001</v>
+      <c r="I3" s="10">
+        <f>1435.682333+22.52329+231.626943</f>
+        <v>1689.832566</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -692,9 +706,9 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <f>+I2*I3</f>
-        <v>17540.372740000003</v>
+        <v>12572.354291040001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -704,33 +718,32 @@
       <c r="H5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="3">
-        <f>1046.534+2329.745</f>
-        <v>3376.279</v>
+      <c r="I5" s="10">
+        <f>925.973+1967.072</f>
+        <v>2893.0450000000001</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="3">
-        <f>3607.717+36.212</f>
-        <v>3643.9290000000001</v>
+      <c r="I6" s="10">
+        <v>3575.9720000000002</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="10">
         <f>+I4-I5+I6</f>
-        <v>17808.02274</v>
+        <v>13255.281291040001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,13 +774,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF26C3C0-DACB-4B3F-9687-8F4322138AEB}">
-  <dimension ref="A1:BQ612"/>
+  <dimension ref="A1:BQ614"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,8 +854,12 @@
       <c r="F3" s="3">
         <v>100</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3">
+        <v>99</v>
+      </c>
+      <c r="H3" s="3">
+        <v>98</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -927,8 +944,12 @@
       <c r="F4" s="3">
         <v>99</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="3">
+        <v>99</v>
+      </c>
+      <c r="H4" s="3">
+        <v>100</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1013,8 +1034,12 @@
       <c r="F5" s="3">
         <v>254</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3">
+        <v>262</v>
+      </c>
+      <c r="H5" s="3">
+        <v>271</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1099,8 +1124,12 @@
       <c r="F6" s="7">
         <v>453</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7">
+        <v>460</v>
+      </c>
+      <c r="H6" s="7">
+        <v>469</v>
+      </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
@@ -1185,8 +1214,12 @@
       <c r="F7" s="2">
         <v>9.73</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>8.41</v>
+      </c>
+      <c r="H7" s="2">
+        <v>8.33</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1271,8 +1304,12 @@
       <c r="F8" s="2">
         <v>2.89</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.65</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1357,8 +1394,12 @@
       <c r="F9" s="2">
         <v>1.19</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.96</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1443,8 +1484,12 @@
       <c r="F10" s="8">
         <v>3.44</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="8">
+        <v>2.96</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2.87</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1587,64 +1632,72 @@
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3">
+      <c r="C12" s="10">
+        <v>733.38800000000003</v>
+      </c>
+      <c r="D12" s="10">
+        <v>741.58799999999997</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>804.93399999999997</v>
+      </c>
+      <c r="H12" s="10">
+        <v>804.39499999999998</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10">
         <v>3205.5540000000001</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="10">
         <v>2952.3009999999999</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="10">
         <v>3236.2170000000001</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
-      <c r="AL12" s="2"/>
-      <c r="AM12" s="2"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+      <c r="AX12" s="10"/>
+      <c r="AY12" s="10"/>
+      <c r="AZ12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
       <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
       <c r="BE12" s="3"/>
@@ -1665,64 +1718,72 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
+      <c r="C13" s="10">
+        <v>200.09200000000001</v>
+      </c>
+      <c r="D13" s="10">
+        <v>235.18600000000001</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <v>223.25700000000001</v>
+      </c>
+      <c r="H13" s="10">
+        <v>254.209</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10">
         <v>712.76400000000001</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="10">
         <v>772.07799999999997</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="10">
         <v>957.07500000000005</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-      <c r="AT13" s="2"/>
-      <c r="AU13" s="2"/>
-      <c r="AV13" s="2"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+      <c r="AX13" s="10"/>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
       <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
       <c r="BE13" s="3"/>
@@ -1743,64 +1804,72 @@
       <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3">
+      <c r="C14" s="10">
+        <v>261.29300000000001</v>
+      </c>
+      <c r="D14" s="10">
+        <v>259.99400000000003</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
+        <v>335.02600000000001</v>
+      </c>
+      <c r="H14" s="10">
+        <v>286.32600000000002</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10">
         <v>683.529</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="10">
         <v>881.73599999999999</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="10">
         <v>1168.106</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+      <c r="AX14" s="10"/>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
       <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
       <c r="BE14" s="3"/>
@@ -1818,67 +1887,69 @@
       <c r="BQ14" s="3"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>36</v>
+      <c r="B15" t="s">
+        <v>64</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7">
-        <v>4601.8469999999998</v>
+      <c r="C15" s="10">
+        <v>1107.854</v>
       </c>
-      <c r="P15" s="7">
-        <v>4606.1149999999998</v>
+      <c r="D15" s="10">
+        <v>1132.067</v>
       </c>
-      <c r="Q15" s="7">
-        <v>5361.3980000000001</v>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
+        <v>1210.8689999999999</v>
       </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
+      <c r="H15" s="10">
+        <v>1173.548</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
       <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
       <c r="BE15" s="3"/>
@@ -1897,66 +1968,68 @@
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3">
-        <v>1815.3420000000001</v>
+      <c r="C16" s="10">
+        <v>86.918999999999997</v>
       </c>
-      <c r="P16" s="3">
-        <v>2114.1170000000002</v>
+      <c r="D16" s="10">
+        <v>104.70099999999999</v>
       </c>
-      <c r="Q16" s="3">
-        <v>2474.2370000000001</v>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
+        <v>152.34800000000001</v>
       </c>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
+      <c r="H16" s="10">
+        <v>171.38200000000001</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
       <c r="BE16" s="3"/>
@@ -1974,79 +2047,75 @@
       <c r="BQ16" s="3"/>
     </row>
     <row r="17" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>38</v>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3">
-        <f t="shared" ref="L17:P17" si="0">+L15-L16</f>
-        <v>0</v>
+      <c r="C17" s="11">
+        <v>1194.7729999999999</v>
       </c>
-      <c r="M17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D17" s="11">
+        <v>1236.768</v>
       </c>
-      <c r="N17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11">
+        <v>1363.2170000000001</v>
       </c>
-      <c r="O17" s="3">
-        <f t="shared" si="0"/>
-        <v>2786.5049999999997</v>
+      <c r="H17" s="11">
+        <v>1344.93</v>
       </c>
-      <c r="P17" s="3">
-        <f t="shared" si="0"/>
-        <v>2491.9979999999996</v>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11">
+        <v>4601.8469999999998</v>
       </c>
-      <c r="Q17" s="3">
-        <f>+Q15-Q16</f>
-        <v>2887.1610000000001</v>
+      <c r="P17" s="11">
+        <v>4606.1149999999998</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
+      <c r="Q17" s="11">
+        <v>5361.3980000000001</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
       <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
       <c r="BE17" s="3"/>
@@ -2065,66 +2134,74 @@
     </row>
     <row r="18" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3">
-        <v>2109.8000000000002</v>
+      <c r="C18" s="10">
+        <v>574.74900000000002</v>
       </c>
-      <c r="P18" s="3">
-        <v>1910.8620000000001</v>
+      <c r="D18" s="10">
+        <v>588.92100000000005</v>
       </c>
-      <c r="Q18" s="3">
-        <v>1691.683</v>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
+        <v>639.57899999999995</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
+      <c r="H18" s="10">
+        <v>653.33299999999997</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10">
+        <v>1815.3420000000001</v>
+      </c>
+      <c r="P18" s="10">
+        <v>2114.1170000000002</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>2474.2370000000001</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
       <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
       <c r="BE18" s="3"/>
@@ -2143,66 +2220,96 @@
     </row>
     <row r="19" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3">
-        <v>1118.7460000000001</v>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:F19" si="0">+C17-C18</f>
+        <v>620.02399999999989</v>
       </c>
-      <c r="P19" s="3">
-        <v>1122.0920000000001</v>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>647.84699999999998</v>
       </c>
-      <c r="Q19" s="3">
-        <v>1063.675</v>
+      <c r="E19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <f>+G17-G18</f>
+        <v>723.63800000000015</v>
+      </c>
+      <c r="H19" s="10">
+        <f>+H17-H18</f>
+        <v>691.59700000000009</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10">
+        <f t="shared" ref="L19:P19" si="1">+L17-L18</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" si="1"/>
+        <v>2786.5049999999997</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="1"/>
+        <v>2491.9979999999996</v>
+      </c>
+      <c r="Q19" s="10">
+        <f>+Q17-Q18</f>
+        <v>2887.1610000000001</v>
+      </c>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
       <c r="BC19" s="3"/>
       <c r="BD19" s="3"/>
       <c r="BE19" s="3"/>
@@ -2221,66 +2328,74 @@
     </row>
     <row r="20" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3">
-        <v>953.26499999999999</v>
+      <c r="C20" s="10">
+        <v>449.75900000000001</v>
       </c>
-      <c r="P20" s="3">
-        <v>857.423</v>
+      <c r="D20" s="10">
+        <v>406.19600000000003</v>
       </c>
-      <c r="Q20" s="3">
-        <v>919.09699999999998</v>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
+        <v>424.16500000000002</v>
       </c>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
+      <c r="H20" s="10">
+        <v>443.32499999999999</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10">
+        <v>2109.8000000000002</v>
+      </c>
+      <c r="P20" s="10">
+        <v>1910.8620000000001</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>1691.683</v>
+      </c>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="10"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
       <c r="BC20" s="3"/>
       <c r="BD20" s="3"/>
       <c r="BE20" s="3"/>
@@ -2299,78 +2414,74 @@
     </row>
     <row r="21" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3">
-        <f t="shared" ref="L21:P21" si="1">+L17-SUM(L18:L20)</f>
-        <v>0</v>
+      <c r="C21" s="10">
+        <v>276.03399999999999</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D21" s="10">
+        <v>266.32</v>
       </c>
-      <c r="N21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
+        <v>257.95699999999999</v>
       </c>
-      <c r="O21" s="3">
-        <f t="shared" si="1"/>
-        <v>-1395.3060000000009</v>
+      <c r="H21" s="10">
+        <v>257.85300000000001</v>
       </c>
-      <c r="P21" s="3">
-        <f t="shared" si="1"/>
-        <v>-1398.3790000000008</v>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10">
+        <v>1118.7460000000001</v>
       </c>
-      <c r="Q21" s="3">
-        <f>+Q17-SUM(Q18:Q20)</f>
-        <v>-787.29399999999987</v>
+      <c r="P21" s="10">
+        <v>1122.0920000000001</v>
       </c>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
+      <c r="Q21" s="10">
+        <v>1063.675</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="10"/>
+      <c r="AS21" s="10"/>
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="10"/>
+      <c r="AX21" s="10"/>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
       <c r="BC21" s="3"/>
       <c r="BD21" s="3"/>
       <c r="BE21" s="3"/>
@@ -2389,66 +2500,74 @@
     </row>
     <row r="22" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3">
-        <v>58.597000000000001</v>
+      <c r="C22" s="10">
+        <v>227.46299999999999</v>
       </c>
-      <c r="P22" s="3">
-        <v>168.39400000000001</v>
+      <c r="D22" s="10">
+        <v>229.30600000000001</v>
       </c>
-      <c r="Q22" s="3">
-        <v>153.46600000000001</v>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
+        <v>235.36199999999999</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
+      <c r="H22" s="10">
+        <v>250.095</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10">
+        <v>953.26499999999999</v>
+      </c>
+      <c r="P22" s="10">
+        <v>857.423</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>919.09699999999998</v>
+      </c>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="10"/>
+      <c r="AS22" s="10"/>
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="10"/>
+      <c r="AX22" s="10"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
       <c r="BC22" s="3"/>
       <c r="BD22" s="3"/>
       <c r="BE22" s="3"/>
@@ -2467,66 +2586,102 @@
     </row>
     <row r="23" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3">
-        <v>21.459</v>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23:J23" si="2">+C19-SUM(C20:C22)</f>
+        <v>-333.23200000000008</v>
       </c>
-      <c r="P23" s="3">
-        <v>22.024000000000001</v>
+      <c r="D23" s="10">
+        <f t="shared" si="2"/>
+        <v>-253.97500000000014</v>
       </c>
-      <c r="Q23" s="3">
-        <v>21.552</v>
+      <c r="E23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
+      <c r="F23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="2"/>
+        <v>-193.84599999999989</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" ref="H23" si="3">+H19-SUM(H20:H22)</f>
+        <v>-259.67599999999993</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10">
+        <f t="shared" ref="L23:P23" si="4">+L19-SUM(L20:L22)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="4"/>
+        <v>-1395.3060000000009</v>
+      </c>
+      <c r="P23" s="10">
+        <f t="shared" si="4"/>
+        <v>-1398.3790000000008</v>
+      </c>
+      <c r="Q23" s="10">
+        <f>+Q19-SUM(Q20:Q22)</f>
+        <v>-787.29399999999987</v>
+      </c>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="10"/>
+      <c r="AS23" s="10"/>
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="10"/>
+      <c r="AX23" s="10"/>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
       <c r="BC23" s="3"/>
       <c r="BD23" s="3"/>
       <c r="BE23" s="3"/>
@@ -2545,66 +2700,74 @@
     </row>
     <row r="24" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3">
-        <v>-42.529000000000003</v>
+      <c r="C24" s="10">
+        <v>39.898000000000003</v>
       </c>
-      <c r="P24" s="3">
-        <v>-42.414000000000001</v>
+      <c r="D24" s="10">
+        <v>36.462000000000003</v>
       </c>
-      <c r="Q24" s="3">
-        <v>-16.846</v>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
+        <v>37.018000000000001</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
+      <c r="H24" s="10">
+        <v>33.198999999999998</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10">
+        <v>58.597000000000001</v>
+      </c>
+      <c r="P24" s="10">
+        <v>168.39400000000001</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>153.46600000000001</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="10"/>
+      <c r="AS24" s="10"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="10"/>
+      <c r="AX24" s="10"/>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
       <c r="BC24" s="3"/>
       <c r="BD24" s="3"/>
       <c r="BE24" s="3"/>
@@ -2623,78 +2786,74 @@
     </row>
     <row r="25" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <f t="shared" ref="L25:P25" si="2">+L21+L22-L23+L24</f>
-        <v>0</v>
+      <c r="C25" s="10">
+        <v>4.7430000000000003</v>
       </c>
-      <c r="M25" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="D25" s="10">
+        <v>5.1130000000000004</v>
       </c>
-      <c r="N25" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
+        <v>23.399000000000001</v>
       </c>
-      <c r="O25" s="3">
-        <f t="shared" si="2"/>
-        <v>-1400.697000000001</v>
+      <c r="H25" s="10">
+        <v>27.606999999999999</v>
       </c>
-      <c r="P25" s="3">
-        <f t="shared" si="2"/>
-        <v>-1294.4230000000009</v>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10">
+        <v>21.459</v>
       </c>
-      <c r="Q25" s="3">
-        <f>+Q21+Q22-Q23+Q24</f>
-        <v>-672.22599999999989</v>
+      <c r="P25" s="10">
+        <v>22.024000000000001</v>
       </c>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
+      <c r="Q25" s="10">
+        <v>21.552</v>
+      </c>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="10"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
       <c r="BC25" s="3"/>
       <c r="BD25" s="3"/>
       <c r="BE25" s="3"/>
@@ -2713,66 +2872,74 @@
     </row>
     <row r="26" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3">
-        <v>28.956</v>
+      <c r="C26" s="10">
+        <v>-8.1000000000000003E-2</v>
       </c>
-      <c r="P26" s="3">
-        <v>28.062000000000001</v>
+      <c r="D26" s="10">
+        <v>-20.792000000000002</v>
       </c>
-      <c r="Q26" s="3">
-        <v>25.63</v>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
+        <v>49.069000000000003</v>
       </c>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
+      <c r="H26" s="10">
+        <v>-0.82299999999999995</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10">
+        <v>-42.529000000000003</v>
+      </c>
+      <c r="P26" s="10">
+        <v>-42.414000000000001</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>-16.846</v>
+      </c>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
       <c r="BC26" s="3"/>
       <c r="BD26" s="3"/>
       <c r="BE26" s="3"/>
@@ -2791,78 +2958,102 @@
     </row>
     <row r="27" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <f t="shared" ref="L27:P27" si="3">+L25-L26</f>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27:J27" si="5">+C23+C24-C25+C26</f>
+        <v>-298.15800000000007</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="5"/>
+        <v>-243.41800000000015</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="3">
-        <f t="shared" si="3"/>
+      <c r="F27" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N27" s="3">
-        <f t="shared" si="3"/>
+      <c r="G27" s="10">
+        <f t="shared" si="5"/>
+        <v>-131.1579999999999</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" ref="H27" si="6">+H23+H24-H25+H26</f>
+        <v>-254.90699999999993</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O27" s="3">
-        <f t="shared" si="3"/>
-        <v>-1429.6530000000009</v>
+      <c r="J27" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
-      <c r="P27" s="3">
-        <f t="shared" si="3"/>
-        <v>-1322.4850000000008</v>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10">
+        <f t="shared" ref="L27:P27" si="7">+L23+L24-L25+L26</f>
+        <v>0</v>
       </c>
-      <c r="Q27" s="3">
-        <f>+Q25-Q26</f>
-        <v>-697.85599999999988</v>
+      <c r="M27" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
+      <c r="N27" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="7"/>
+        <v>-1400.697000000001</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="7"/>
+        <v>-1294.4230000000009</v>
+      </c>
+      <c r="Q27" s="10">
+        <f>+Q23+Q24-Q25+Q26</f>
+        <v>-672.22599999999989</v>
+      </c>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="10"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="10"/>
+      <c r="AS27" s="10"/>
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="10"/>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
       <c r="BC27" s="3"/>
       <c r="BD27" s="3"/>
       <c r="BE27" s="3"/>
@@ -2880,58 +3071,75 @@
       <c r="BQ27" s="3"/>
     </row>
     <row r="28" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
-      <c r="AX28" s="3"/>
-      <c r="AY28" s="3"/>
-      <c r="AZ28" s="3"/>
-      <c r="BA28" s="3"/>
-      <c r="BB28" s="3"/>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="10">
+        <v>6.9320000000000004</v>
+      </c>
+      <c r="D28" s="10">
+        <v>5.202</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <v>8.4290000000000003</v>
+      </c>
+      <c r="H28" s="10">
+        <v>7.6630000000000003</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10">
+        <v>28.956</v>
+      </c>
+      <c r="P28" s="10">
+        <v>28.062000000000001</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>25.63</v>
+      </c>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
       <c r="BC28" s="3"/>
       <c r="BD28" s="3"/>
       <c r="BE28" s="3"/>
@@ -2950,78 +3158,102 @@
     </row>
     <row r="29" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2" t="e">
-        <f t="shared" ref="L29:P29" si="4">+L27/L30</f>
-        <v>#DIV/0!</v>
+      <c r="C29" s="10">
+        <f t="shared" ref="C29:F29" si="8">+C27-C28</f>
+        <v>-305.09000000000009</v>
       </c>
-      <c r="M29" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="D29" s="10">
+        <f t="shared" si="8"/>
+        <v>-248.62000000000015</v>
       </c>
-      <c r="N29" s="2" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="E29" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
-      <c r="O29" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.88891963210935299</v>
+      <c r="F29" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
-      <c r="P29" s="2">
-        <f t="shared" si="4"/>
-        <v>-0.8201437019691119</v>
+      <c r="G29" s="10">
+        <f>+G27-G28</f>
+        <v>-139.5869999999999</v>
       </c>
-      <c r="Q29" s="2">
-        <f>+Q27/Q30</f>
-        <v>-0.42061131412707847</v>
+      <c r="H29" s="10">
+        <f>+H27-H28</f>
+        <v>-262.56999999999994</v>
       </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
-      <c r="AX29" s="3"/>
-      <c r="AY29" s="3"/>
-      <c r="AZ29" s="3"/>
-      <c r="BA29" s="3"/>
-      <c r="BB29" s="3"/>
+      <c r="I29" s="10">
+        <f t="shared" ref="I29:J29" si="9">+I27-I28</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10">
+        <f t="shared" ref="L29:P29" si="10">+L27-L28</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="10"/>
+        <v>-1429.6530000000009</v>
+      </c>
+      <c r="P29" s="10">
+        <f t="shared" si="10"/>
+        <v>-1322.4850000000008</v>
+      </c>
+      <c r="Q29" s="10">
+        <f>+Q27-Q28</f>
+        <v>-697.85599999999988</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
       <c r="BC29" s="3"/>
       <c r="BD29" s="3"/>
       <c r="BE29" s="3"/>
@@ -3039,67 +3271,58 @@
       <c r="BQ29" s="3"/>
     </row>
     <row r="30" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3">
-        <v>1608.3040000000001</v>
-      </c>
-      <c r="P30" s="3">
-        <v>1612.5039999999999</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1659.1469999999999</v>
-      </c>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
       <c r="BC30" s="3"/>
       <c r="BD30" s="3"/>
       <c r="BE30" s="3"/>
@@ -3117,29 +3340,68 @@
       <c r="BQ30" s="3"/>
     </row>
     <row r="31" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="12">
+        <f t="shared" ref="C31:F31" si="11">+C29/C32</f>
+        <v>-0.18519631392016575</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" si="11"/>
+        <v>-0.15116103739445122</v>
+      </c>
+      <c r="E31" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="12">
+        <f>+G29/G32</f>
+        <v>-8.22865288062095E-2</v>
+      </c>
+      <c r="H31" s="12">
+        <f>+H29/H32</f>
+        <v>-0.15677187384691438</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="e">
+        <f t="shared" ref="L31:P31" si="12">+L29/L32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="12"/>
+        <v>-0.88891963210935299</v>
+      </c>
+      <c r="P31" s="12">
+        <f t="shared" si="12"/>
+        <v>-0.8201437019691119</v>
+      </c>
+      <c r="Q31" s="12">
+        <f>+Q29/Q32</f>
+        <v>-0.42061131412707847</v>
+      </c>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
@@ -3187,46 +3449,45 @@
     </row>
     <row r="32" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="9" t="e">
-        <f t="shared" ref="M32:P35" si="5">+M3/L3-1</f>
-        <v>#DIV/0!</v>
+      <c r="C32" s="10">
+        <v>1647.3869999999999</v>
       </c>
-      <c r="N32" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="D32" s="10">
+        <v>1644.7360000000001</v>
       </c>
-      <c r="O32" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
+        <v>1696.3530000000001</v>
       </c>
-      <c r="P32" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="H32" s="10">
+        <v>1674.854</v>
       </c>
-      <c r="Q32" s="9">
-        <f>+Q3/P3-1</f>
-        <v>0</v>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10">
+        <v>1608.3040000000001</v>
       </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
+      <c r="P32" s="10">
+        <v>1612.5039999999999</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>1659.1469999999999</v>
+      </c>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
@@ -3273,9 +3534,6 @@
       <c r="BQ32" s="3"/>
     </row>
     <row r="33" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3286,26 +3544,11 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
-      <c r="M33" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" s="9">
-        <f t="shared" si="5"/>
-        <v>4.3478260869565188E-2</v>
-      </c>
-      <c r="Q33" s="9">
-        <f t="shared" ref="Q33:Q35" si="6">+Q4/P4-1</f>
-        <v>3.125E-2</v>
-      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -3361,37 +3604,43 @@
     </row>
     <row r="34" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="9">
+        <f t="shared" ref="G34:G37" si="13">+G3/C3-1</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="H34" s="9">
+        <f>+H3/D3-1</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f>+M3/L3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f>+N3/M3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f>+O3/N3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P34" s="9">
-        <f t="shared" si="5"/>
-        <v>0.18032786885245899</v>
+        <f>+P3/O3-1</f>
+        <v>0</v>
       </c>
       <c r="Q34" s="9">
-        <f t="shared" si="6"/>
-        <v>0.17592592592592582</v>
+        <f>+Q3/P3-1</f>
+        <v>0</v>
       </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -3448,37 +3697,43 @@
     </row>
     <row r="35" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="9">
+        <f t="shared" si="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" ref="H35:H37" si="14">+H4/D4-1</f>
+        <v>3.0927835051546282E-2</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f>+M4/L4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N35" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f>+N4/M4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="9" t="e">
-        <f t="shared" si="5"/>
+        <f>+O4/N4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P35" s="9">
-        <f t="shared" si="5"/>
-        <v>0.13066666666666671</v>
+        <f>+P4/O4-1</f>
+        <v>4.3478260869565188E-2</v>
       </c>
       <c r="Q35" s="9">
-        <f t="shared" si="6"/>
-        <v>6.8396226415094352E-2</v>
+        <f>+Q4/P4-1</f>
+        <v>3.125E-2</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -3535,37 +3790,43 @@
     </row>
     <row r="36" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="9">
+        <f t="shared" si="13"/>
+        <v>0.15929203539823011</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="14"/>
+        <v>0.15319148936170213</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="9" t="e">
-        <f t="shared" ref="M36:P39" si="7">+M12/L12-1</f>
+        <f>+M5/L5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N36" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+N5/M5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+O5/N5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="9">
-        <f t="shared" si="7"/>
-        <v>-7.9004440418099398E-2</v>
+        <f>+P5/O5-1</f>
+        <v>0.18032786885245899</v>
       </c>
       <c r="Q36" s="9">
-        <f>+Q12/P12-1</f>
-        <v>9.6167701057581878E-2</v>
+        <f>+Q5/P5-1</f>
+        <v>0.17592592592592582</v>
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -3622,37 +3883,43 @@
     </row>
     <row r="37" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="9">
+        <f t="shared" si="13"/>
+        <v>9.004739336492884E-2</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="14"/>
+        <v>8.564814814814814E-2</v>
+      </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+M6/L6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N37" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+N6/M6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+O6/N6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P37" s="9">
-        <f t="shared" si="7"/>
-        <v>8.321688525234161E-2</v>
+        <f>+P6/O6-1</f>
+        <v>0.13066666666666671</v>
       </c>
       <c r="Q37" s="9">
-        <f t="shared" ref="Q37:Q39" si="8">+Q13/P13-1</f>
-        <v>0.23960921046837247</v>
+        <f>+Q6/P6-1</f>
+        <v>6.8396226415094352E-2</v>
       </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -3709,37 +3976,43 @@
     </row>
     <row r="38" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="9">
+        <f t="shared" ref="G38:G40" si="15">+G12/C12-1</f>
+        <v>9.7555454956993914E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <f>+H12/D12-1</f>
+        <v>8.4692578628564608E-2</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+M12/L12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N38" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+N12/M12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+O12/N12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" si="7"/>
-        <v>0.28997599224027071</v>
+        <f>+P12/O12-1</f>
+        <v>-7.9004440418099398E-2</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="8"/>
-        <v>0.32477975266973336</v>
+        <f>+Q12/P12-1</f>
+        <v>9.6167701057581878E-2</v>
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -3796,37 +4069,43 @@
     </row>
     <row r="39" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="9">
+        <f t="shared" si="15"/>
+        <v>0.11577174499730125</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" ref="H39:H40" si="16">+H13/D13-1</f>
+        <v>8.0884916619186509E-2</v>
+      </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+M13/L13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N39" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+N13/M13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="9" t="e">
-        <f t="shared" si="7"/>
+        <f>+O13/N13-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P39" s="9">
-        <f t="shared" si="7"/>
-        <v>9.2745369413638201E-4</v>
+        <f>+P13/O13-1</f>
+        <v>8.321688525234161E-2</v>
       </c>
       <c r="Q39" s="9">
-        <f t="shared" si="8"/>
-        <v>0.16397397807045633</v>
+        <f>+Q13/P13-1</f>
+        <v>0.23960921046837247</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
@@ -3883,40 +4162,43 @@
     </row>
     <row r="40" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="G40" s="9">
+        <f t="shared" si="15"/>
+        <v>0.28218513316468496</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="16"/>
+        <v>0.10127926029062206</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="9" t="e">
-        <f t="shared" ref="L40:P40" si="9">+L17/L15</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L40" s="3"/>
       <c r="M40" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f>+M14/L14-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N40" s="9" t="e">
-        <f t="shared" si="9"/>
+        <f>+N14/M14-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="9">
-        <f t="shared" si="9"/>
-        <v>0.60551882754902542</v>
+      <c r="O40" s="9" t="e">
+        <f>+O14/N14-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="9"/>
-        <v>0.54101949256586079</v>
+        <f>+P14/O14-1</f>
+        <v>0.28997599224027071</v>
       </c>
       <c r="Q40" s="9">
-        <f>+Q17/Q15</f>
-        <v>0.53850898590255747</v>
+        <f>+Q14/P14-1</f>
+        <v>0.32477975266973336</v>
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -3972,41 +4254,44 @@
       <c r="BQ40" s="3"/>
     </row>
     <row r="41" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>61</v>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="13">
+        <f t="shared" ref="G41" si="17">+G17/C17-1</f>
+        <v>0.14098410325643473</v>
+      </c>
+      <c r="H41" s="13">
+        <f>+H17/D17-1</f>
+        <v>8.7455367538616713E-2</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-      <c r="L41" s="9" t="e">
-        <f t="shared" ref="L41:P41" si="10">+L21/L15</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="L41" s="3"/>
       <c r="M41" s="9" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="M41:P41" si="18">+M17/L17-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N41" s="9" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="9">
-        <f t="shared" si="10"/>
-        <v>-0.30320564764539132</v>
+      <c r="O41" s="9" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P41" s="9">
-        <f t="shared" si="10"/>
-        <v>-0.30359185560933694</v>
+        <f t="shared" si="18"/>
+        <v>9.2745369413638201E-4</v>
       </c>
       <c r="Q41" s="9">
-        <f>+Q21/Q15</f>
-        <v>-0.14684490873462477</v>
+        <f t="shared" ref="Q41" si="19">+Q17/P17-1</f>
+        <v>0.16397397807045633</v>
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
@@ -4063,40 +4348,58 @@
     </row>
     <row r="42" spans="2:69" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="C42" s="9">
+        <f t="shared" ref="C42:H42" si="20">+C19/C17</f>
+        <v>0.51894711380320779</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="20"/>
+        <v>0.52382257626329265</v>
+      </c>
+      <c r="E42" s="9" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F42" s="9" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="20"/>
+        <v>0.53083111492887791</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="20"/>
+        <v>0.5142252756649045</v>
+      </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="9" t="e">
-        <f t="shared" ref="L42:P42" si="11">+L26/L25</f>
+        <f t="shared" ref="L42:P42" si="21">+L19/L17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" s="9" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="9" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="9">
-        <f t="shared" si="11"/>
-        <v>-2.0672565158631723E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.60551882754902542</v>
       </c>
       <c r="P42" s="9">
-        <f t="shared" si="11"/>
-        <v>-2.1679157431535118E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.54101949256586079</v>
       </c>
       <c r="Q42" s="9">
-        <f>+Q26/Q25</f>
-        <v>-3.8127058459506181E-2</v>
+        <f>+Q19/Q17</f>
+        <v>0.53850898590255747</v>
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
@@ -4152,21 +4455,60 @@
       <c r="BQ42" s="3"/>
     </row>
     <row r="43" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="9">
+        <f t="shared" ref="C43:H43" si="22">+C23/C17</f>
+        <v>-0.27890821101581648</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="22"/>
+        <v>-0.20535379311237043</v>
+      </c>
+      <c r="E43" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="9" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="22"/>
+        <v>-0.14219746379336518</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="22"/>
+        <v>-0.1930777066464425</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="L43" s="9" t="e">
+        <f t="shared" ref="L43:P43" si="23">+L23/L17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="9" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="9" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="23"/>
+        <v>-0.30320564764539132</v>
+      </c>
+      <c r="P43" s="9">
+        <f t="shared" si="23"/>
+        <v>-0.30359185560933694</v>
+      </c>
+      <c r="Q43" s="9">
+        <f>+Q23/Q17</f>
+        <v>-0.14684490873462477</v>
+      </c>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -4221,21 +4563,60 @@
       <c r="BQ43" s="3"/>
     </row>
     <row r="44" spans="2:69" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="9">
+        <f t="shared" ref="C44:H44" si="24">+C28/C27</f>
+        <v>-2.3249418093762363E-2</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="24"/>
+        <v>-2.1370646377835645E-2</v>
+      </c>
+      <c r="E44" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F44" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="24"/>
+        <v>-6.4265999786517078E-2</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="24"/>
+        <v>-3.0061944160026999E-2</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="L44" s="9" t="e">
+        <f t="shared" ref="L44:P44" si="25">+L28/L27</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M44" s="9" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N44" s="9" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="25"/>
+        <v>-2.0672565158631723E-2</v>
+      </c>
+      <c r="P44" s="9">
+        <f t="shared" si="25"/>
+        <v>-2.1679157431535118E-2</v>
+      </c>
+      <c r="Q44" s="9">
+        <f>+Q28/Q27</f>
+        <v>-3.8127058459506181E-2</v>
+      </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -43481,10 +43862,149 @@
       <c r="BP612" s="3"/>
       <c r="BQ612" s="3"/>
     </row>
+    <row r="613" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="C613" s="3"/>
+      <c r="D613" s="3"/>
+      <c r="E613" s="3"/>
+      <c r="F613" s="3"/>
+      <c r="G613" s="3"/>
+      <c r="H613" s="3"/>
+      <c r="I613" s="3"/>
+      <c r="J613" s="3"/>
+      <c r="K613" s="3"/>
+      <c r="L613" s="3"/>
+      <c r="M613" s="3"/>
+      <c r="N613" s="3"/>
+      <c r="O613" s="3"/>
+      <c r="P613" s="3"/>
+      <c r="Q613" s="3"/>
+      <c r="R613" s="3"/>
+      <c r="S613" s="3"/>
+      <c r="T613" s="3"/>
+      <c r="U613" s="3"/>
+      <c r="V613" s="3"/>
+      <c r="W613" s="3"/>
+      <c r="X613" s="3"/>
+      <c r="Y613" s="3"/>
+      <c r="Z613" s="3"/>
+      <c r="AA613" s="3"/>
+      <c r="AB613" s="3"/>
+      <c r="AC613" s="3"/>
+      <c r="AD613" s="3"/>
+      <c r="AE613" s="3"/>
+      <c r="AF613" s="3"/>
+      <c r="AG613" s="3"/>
+      <c r="AH613" s="3"/>
+      <c r="AI613" s="3"/>
+      <c r="AJ613" s="3"/>
+      <c r="AK613" s="3"/>
+      <c r="AL613" s="3"/>
+      <c r="AM613" s="3"/>
+      <c r="AN613" s="3"/>
+      <c r="AO613" s="3"/>
+      <c r="AP613" s="3"/>
+      <c r="AQ613" s="3"/>
+      <c r="AR613" s="3"/>
+      <c r="AS613" s="3"/>
+      <c r="AT613" s="3"/>
+      <c r="AU613" s="3"/>
+      <c r="AV613" s="3"/>
+      <c r="AW613" s="3"/>
+      <c r="AX613" s="3"/>
+      <c r="AY613" s="3"/>
+      <c r="AZ613" s="3"/>
+      <c r="BA613" s="3"/>
+      <c r="BB613" s="3"/>
+      <c r="BC613" s="3"/>
+      <c r="BD613" s="3"/>
+      <c r="BE613" s="3"/>
+      <c r="BF613" s="3"/>
+      <c r="BG613" s="3"/>
+      <c r="BH613" s="3"/>
+      <c r="BI613" s="3"/>
+      <c r="BJ613" s="3"/>
+      <c r="BK613" s="3"/>
+      <c r="BL613" s="3"/>
+      <c r="BM613" s="3"/>
+      <c r="BN613" s="3"/>
+      <c r="BO613" s="3"/>
+      <c r="BP613" s="3"/>
+      <c r="BQ613" s="3"/>
+    </row>
+    <row r="614" spans="3:69" x14ac:dyDescent="0.25">
+      <c r="C614" s="3"/>
+      <c r="D614" s="3"/>
+      <c r="E614" s="3"/>
+      <c r="F614" s="3"/>
+      <c r="G614" s="3"/>
+      <c r="H614" s="3"/>
+      <c r="I614" s="3"/>
+      <c r="J614" s="3"/>
+      <c r="K614" s="3"/>
+      <c r="L614" s="3"/>
+      <c r="M614" s="3"/>
+      <c r="N614" s="3"/>
+      <c r="O614" s="3"/>
+      <c r="P614" s="3"/>
+      <c r="Q614" s="3"/>
+      <c r="R614" s="3"/>
+      <c r="S614" s="3"/>
+      <c r="T614" s="3"/>
+      <c r="U614" s="3"/>
+      <c r="V614" s="3"/>
+      <c r="W614" s="3"/>
+      <c r="X614" s="3"/>
+      <c r="Y614" s="3"/>
+      <c r="Z614" s="3"/>
+      <c r="AA614" s="3"/>
+      <c r="AB614" s="3"/>
+      <c r="AC614" s="3"/>
+      <c r="AD614" s="3"/>
+      <c r="AE614" s="3"/>
+      <c r="AF614" s="3"/>
+      <c r="AG614" s="3"/>
+      <c r="AH614" s="3"/>
+      <c r="AI614" s="3"/>
+      <c r="AJ614" s="3"/>
+      <c r="AK614" s="3"/>
+      <c r="AL614" s="3"/>
+      <c r="AM614" s="3"/>
+      <c r="AN614" s="3"/>
+      <c r="AO614" s="3"/>
+      <c r="AP614" s="3"/>
+      <c r="AQ614" s="3"/>
+      <c r="AR614" s="3"/>
+      <c r="AS614" s="3"/>
+      <c r="AT614" s="3"/>
+      <c r="AU614" s="3"/>
+      <c r="AV614" s="3"/>
+      <c r="AW614" s="3"/>
+      <c r="AX614" s="3"/>
+      <c r="AY614" s="3"/>
+      <c r="AZ614" s="3"/>
+      <c r="BA614" s="3"/>
+      <c r="BB614" s="3"/>
+      <c r="BC614" s="3"/>
+      <c r="BD614" s="3"/>
+      <c r="BE614" s="3"/>
+      <c r="BF614" s="3"/>
+      <c r="BG614" s="3"/>
+      <c r="BH614" s="3"/>
+      <c r="BI614" s="3"/>
+      <c r="BJ614" s="3"/>
+      <c r="BK614" s="3"/>
+      <c r="BL614" s="3"/>
+      <c r="BM614" s="3"/>
+      <c r="BN614" s="3"/>
+      <c r="BO614" s="3"/>
+      <c r="BP614" s="3"/>
+      <c r="BQ614" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EE4E6E41-ACD1-4589-938A-64B8AD241423}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SNAP.xlsx
+++ b/SNAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB350F3-35EC-42A5-A360-933605C3AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08661E12-D2DE-4127-B07C-AFC1DB9B8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>Snap</t>
   </si>
@@ -236,6 +236,12 @@
   <si>
     <t>Other Revenue</t>
   </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Ewan Spiegel</t>
+  </si>
 </sst>
 </file>
 
@@ -245,13 +251,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -315,27 +327,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -675,7 +688,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -757,6 +770,14 @@
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
         <v>13255.281291040001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -793,7 +814,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SNAP.xlsx
+++ b/SNAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08661E12-D2DE-4127-B07C-AFC1DB9B8C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B445C-B683-47D8-B5EB-A698AE3AE76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
   </bookViews>
@@ -688,7 +688,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>7.44</v>
+        <v>8.16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>12572.354291040001</v>
+        <v>13789.033738560001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>13255.281291040001</v>
+        <v>14471.960738560001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/SNAP.xlsx
+++ b/SNAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B445C-B683-47D8-B5EB-A698AE3AE76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60253591-276A-4A56-BB5A-C4CC122183D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
   </bookViews>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>8.16</v>
+        <v>7.72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>13789.033738560001</v>
+        <v>13045.50740952</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>14471.960738560001</v>
+        <v>13728.434409519999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/SNAP.xlsx
+++ b/SNAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60253591-276A-4A56-BB5A-C4CC122183D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D755E-81DF-4233-AF40-D399D0541B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
   </bookViews>
@@ -710,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>7.72</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>13045.50740952</v>
+        <v>14515.661741940001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>13728.434409519999</v>
+        <v>15198.588741940001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/SNAP.xlsx
+++ b/SNAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D755E-81DF-4233-AF40-D399D0541B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20446BF7-6966-4ECA-88DB-A6E854203893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{AE35FE02-C0F4-427E-A3D8-609427A1DAE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Snap</t>
   </si>
@@ -242,6 +242,9 @@
   <si>
     <t>Ewan Spiegel</t>
   </si>
+  <si>
+    <t>Deal with Perplexity</t>
+  </si>
 </sst>
 </file>
 
@@ -251,13 +254,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -327,27 +336,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -687,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049A58B0-72B1-43A3-9DAF-A00D690EB18D}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -710,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>8.59</v>
+        <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -718,11 +731,11 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <f>1435.682333+22.52329+231.626943</f>
-        <v>1689.832566</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>16</v>
+        <f>1465.208378+22.52329+231.626943</f>
+        <v>1719.3586110000001</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -734,7 +747,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>14515.661741940001</v>
+        <v>14115.934196310003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -745,11 +758,11 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <f>925.973+1967.072</f>
-        <v>2893.0450000000001</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>16</v>
+        <f>953.317+2040.06</f>
+        <v>2993.377</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -757,10 +770,11 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <v>3575.9720000000002</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
+        <f>46.951+3490.938</f>
+        <v>3537.8890000000001</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -769,7 +783,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>15198.588741940001</v>
+        <v>14660.446196310004</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -793,6 +807,11 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
@@ -811,10 +830,10 @@
   <dimension ref="A1:BQ614"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -895,7 +914,9 @@
       <c r="H3" s="7">
         <v>98</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>98</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -985,7 +1006,9 @@
       <c r="H4" s="7">
         <v>100</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>100</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -1075,7 +1098,9 @@
       <c r="H5" s="7">
         <v>271</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>280</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1165,7 +1190,9 @@
       <c r="H6" s="8">
         <v>469</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="8">
+        <v>477</v>
+      </c>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1255,7 +1282,9 @@
       <c r="H7" s="9">
         <v>8.33</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -1345,7 +1374,9 @@
       <c r="H8" s="9">
         <v>2.65</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9">
+        <v>2.99</v>
+      </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1435,7 +1466,9 @@
       <c r="H9" s="9">
         <v>0.96</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9">
+        <v>1.1100000000000001</v>
+      </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -1525,7 +1558,9 @@
       <c r="H10" s="10">
         <v>2.87</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="10">
+        <v>3.16</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -1673,7 +1708,9 @@
       <c r="D12" s="3">
         <v>741.58799999999997</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3">
+        <v>826.17899999999997</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
         <v>804.93399999999997</v>
@@ -1681,7 +1718,9 @@
       <c r="H12" s="3">
         <v>804.39499999999998</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>870.03</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1759,7 +1798,9 @@
       <c r="D13" s="3">
         <v>235.18600000000001</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3">
+        <v>241.34200000000001</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <v>223.25700000000001</v>
@@ -1767,7 +1808,9 @@
       <c r="H13" s="3">
         <v>254.209</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>285.8</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1845,7 +1888,9 @@
       <c r="D14" s="3">
         <v>259.99400000000003</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>305.053</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3">
         <v>335.02600000000001</v>
@@ -1853,7 +1898,9 @@
       <c r="H14" s="3">
         <v>286.32600000000002</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>351.00900000000001</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1931,7 +1978,9 @@
       <c r="D15" s="3">
         <v>1132.067</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>1249.3219999999999</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>1210.8689999999999</v>
@@ -1939,7 +1988,9 @@
       <c r="H15" s="3">
         <v>1173.548</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>1317.1189999999999</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2011,7 +2062,9 @@
       <c r="D16" s="3">
         <v>104.70099999999999</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>123.252</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3">
         <v>152.34800000000001</v>
@@ -2019,7 +2072,9 @@
       <c r="H16" s="3">
         <v>171.38200000000001</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>189.72</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2091,7 +2146,9 @@
       <c r="D17" s="11">
         <v>1236.768</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="11">
+        <v>1372.5740000000001</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
         <v>1363.2170000000001</v>
@@ -2099,7 +2156,9 @@
       <c r="H17" s="11">
         <v>1344.93</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="11">
+        <v>1506.8389999999999</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -2177,7 +2236,9 @@
       <c r="D18" s="3">
         <v>588.92100000000005</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>638.90700000000004</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
         <v>639.57899999999995</v>
@@ -2185,7 +2246,9 @@
       <c r="H18" s="3">
         <v>653.33299999999997</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>674.22</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2267,7 +2330,7 @@
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>733.66700000000003</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="0"/>
@@ -2281,7 +2344,10 @@
         <f>+H17-H18</f>
         <v>691.59700000000009</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <f>+I17-I18</f>
+        <v>832.61899999999991</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3">
@@ -2371,7 +2437,9 @@
       <c r="D20" s="3">
         <v>406.19600000000003</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>412.791</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3">
         <v>424.16500000000002</v>
@@ -2379,7 +2447,9 @@
       <c r="H20" s="3">
         <v>443.32499999999999</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>453.41800000000001</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2457,7 +2527,9 @@
       <c r="D21" s="3">
         <v>266.32</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3">
+        <v>273.10700000000003</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3">
         <v>257.95699999999999</v>
@@ -2465,7 +2537,9 @@
       <c r="H21" s="3">
         <v>257.85300000000001</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>256.21499999999997</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2543,7 +2617,9 @@
       <c r="D22" s="3">
         <v>229.30600000000001</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>220.97900000000001</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3">
         <v>235.36199999999999</v>
@@ -2551,7 +2627,9 @@
       <c r="H22" s="3">
         <v>250.095</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>251.34800000000001</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2633,7 +2711,7 @@
       </c>
       <c r="E23" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-173.21000000000004</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
@@ -2649,7 +2727,7 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-128.36200000000008</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="2"/>
@@ -2743,7 +2821,9 @@
       <c r="D24" s="3">
         <v>36.462000000000003</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3">
+        <v>38.533000000000001</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3">
         <v>37.018000000000001</v>
@@ -2751,7 +2831,9 @@
       <c r="H24" s="3">
         <v>33.198999999999998</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>32.255000000000003</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2829,7 +2911,9 @@
       <c r="D25" s="3">
         <v>5.1130000000000004</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>5.8330000000000002</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3">
         <v>23.399000000000001</v>
@@ -2837,7 +2921,9 @@
       <c r="H25" s="3">
         <v>27.606999999999999</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>34.494</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2915,7 +3001,9 @@
       <c r="D26" s="3">
         <v>-20.792000000000002</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3">
+        <v>-4.3550000000000004</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3">
         <v>49.069000000000003</v>
@@ -2923,7 +3011,9 @@
       <c r="H26" s="3">
         <v>-0.82299999999999995</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>27.57</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -3005,7 +3095,7 @@
       </c>
       <c r="E27" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-144.86500000000001</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="5"/>
@@ -3021,7 +3111,7 @@
       </c>
       <c r="I27" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-103.03100000000009</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="5"/>
@@ -3115,7 +3205,9 @@
       <c r="D28" s="3">
         <v>5.202</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3">
+        <v>8.3320000000000007</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3">
         <v>8.4290000000000003</v>
@@ -3123,7 +3215,9 @@
       <c r="H28" s="3">
         <v>7.6630000000000003</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>0.51</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -3205,7 +3299,7 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-153.197</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="8"/>
@@ -3221,7 +3315,7 @@
       </c>
       <c r="I29" s="3">
         <f t="shared" ref="I29:J29" si="9">+I27-I28</f>
-        <v>0</v>
+        <v>-103.5410000000001</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="9"/>
@@ -3386,9 +3480,9 @@
         <f t="shared" si="11"/>
         <v>-0.15116103739445122</v>
       </c>
-      <c r="E31" s="12" t="e">
+      <c r="E31" s="12">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>-9.212025657076231E-2</v>
       </c>
       <c r="F31" s="12" t="e">
         <f t="shared" si="11"/>
@@ -3402,7 +3496,10 @@
         <f>+H29/H32</f>
         <v>-0.15677187384691438</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="12">
+        <f>+I29/I32</f>
+        <v>-6.103061403725938E-2</v>
+      </c>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12" t="e">
@@ -3492,7 +3589,9 @@
       <c r="D32" s="3">
         <v>1644.7360000000001</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>1663.011</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3">
         <v>1696.3530000000001</v>
@@ -3500,7 +3599,9 @@
       <c r="H32" s="3">
         <v>1674.854</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <v>1696.5419999999999</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3653,7 +3754,10 @@
         <f>+H3/D3-1</f>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="13">
+        <f>+I3/E3-1</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
@@ -3743,10 +3847,13 @@
         <v>3.125E-2</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" ref="H35:H37" si="15">+H4/D4-1</f>
+        <f t="shared" ref="H35:I37" si="15">+H4/D4-1</f>
         <v>3.0927835051546282E-2</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="13">
+        <f t="shared" si="15"/>
+        <v>1.0101010101010166E-2</v>
+      </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
@@ -3839,7 +3946,10 @@
         <f t="shared" si="15"/>
         <v>0.15319148936170213</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="13">
+        <f t="shared" si="15"/>
+        <v>0.14754098360655732</v>
+      </c>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
@@ -3932,7 +4042,10 @@
         <f t="shared" si="15"/>
         <v>8.564814814814814E-2</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="13">
+        <f t="shared" si="15"/>
+        <v>7.674943566591419E-2</v>
+      </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
@@ -4025,7 +4138,10 @@
         <f>+H12/D12-1</f>
         <v>8.4692578628564608E-2</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="13">
+        <f>+I12/E12-1</f>
+        <v>5.3076875592335426E-2</v>
+      </c>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -4115,10 +4231,13 @@
         <v>0.11577174499730125</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" ref="H39:H40" si="18">+H13/D13-1</f>
+        <f t="shared" ref="H39:I40" si="18">+H13/D13-1</f>
         <v>8.0884916619186509E-2</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="13">
+        <f t="shared" si="18"/>
+        <v>0.18421161670989705</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
@@ -4211,7 +4330,10 @@
         <f t="shared" si="18"/>
         <v>0.10127926029062206</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="13">
+        <f t="shared" si="18"/>
+        <v>0.15064923144502762</v>
+      </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
@@ -4304,7 +4426,10 @@
         <f>+H17/D17-1</f>
         <v>8.7455367538616713E-2</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="14">
+        <f>+I17/E17-1</f>
+        <v>9.7819862535644564E-2</v>
+      </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
@@ -4393,9 +4518,9 @@
         <f t="shared" si="22"/>
         <v>0.52382257626329265</v>
       </c>
-      <c r="E42" s="13" t="e">
+      <c r="E42" s="13">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
+        <v>0.53451908603834841</v>
       </c>
       <c r="F42" s="13" t="e">
         <f t="shared" si="22"/>
@@ -4409,27 +4534,30 @@
         <f t="shared" si="22"/>
         <v>0.5142252756649045</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="13">
+        <f t="shared" ref="I42" si="23">+I19/I17</f>
+        <v>0.55256002797910053</v>
+      </c>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="13" t="e">
-        <f t="shared" ref="L42:P42" si="23">+L19/L17</f>
+        <f t="shared" ref="L42:P42" si="24">+L19/L17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" s="13" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="13" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.60551882754902542</v>
       </c>
       <c r="P42" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.54101949256586079</v>
       </c>
       <c r="Q42" s="13">
@@ -4494,50 +4622,53 @@
         <v>61</v>
       </c>
       <c r="C43" s="13">
-        <f t="shared" ref="C43:H43" si="24">+C23/C17</f>
+        <f t="shared" ref="C43:H43" si="25">+C23/C17</f>
         <v>-0.27890821101581648</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.20535379311237043</v>
       </c>
-      <c r="E43" s="13" t="e">
-        <f t="shared" si="24"/>
+      <c r="E43" s="13">
+        <f t="shared" si="25"/>
+        <v>-0.12619356042005753</v>
+      </c>
+      <c r="F43" s="13" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="13" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="G43" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.14219746379336518</v>
       </c>
       <c r="H43" s="13">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-0.1930777066464425</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="13">
+        <f t="shared" ref="I43" si="26">+I23/I17</f>
+        <v>-8.5186274047857863E-2</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="13" t="e">
-        <f t="shared" ref="L43:P43" si="25">+L23/L17</f>
+        <f t="shared" ref="L43:P43" si="27">+L23/L17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="13" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="13" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.30320564764539132</v>
       </c>
       <c r="P43" s="13">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-0.30359185560933694</v>
       </c>
       <c r="Q43" s="13">
@@ -4602,50 +4733,53 @@
         <v>62</v>
       </c>
       <c r="C44" s="13">
-        <f t="shared" ref="C44:H44" si="26">+C28/C27</f>
+        <f t="shared" ref="C44:H44" si="28">+C28/C27</f>
         <v>-2.3249418093762363E-2</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-2.1370646377835645E-2</v>
       </c>
-      <c r="E44" s="13" t="e">
-        <f t="shared" si="26"/>
+      <c r="E44" s="13">
+        <f t="shared" si="28"/>
+        <v>-5.7515617989162326E-2</v>
+      </c>
+      <c r="F44" s="13" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="13" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="G44" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-6.4265999786517078E-2</v>
       </c>
       <c r="H44" s="13">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-3.0061944160026999E-2</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="13">
+        <f t="shared" ref="I44" si="29">+I28/I27</f>
+        <v>-4.9499665149323946E-3</v>
+      </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="13" t="e">
-        <f t="shared" ref="L44:P44" si="27">+L28/L27</f>
+        <f t="shared" ref="L44:P44" si="30">+L28/L27</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" s="13" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="13" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-2.0672565158631723E-2</v>
       </c>
       <c r="P44" s="13">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>-2.1679157431535118E-2</v>
       </c>
       <c r="Q44" s="13">
